--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C41D5-512D-D54A-9471-053DB9BE3480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B40518-1936-554F-9E4B-D84AF6EAF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B40518-1936-554F-9E4B-D84AF6EAF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5043B7B-B73D-BC47-9DB6-0CEC03E87D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>Script Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>Init installed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +201,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,9 +321,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -761,28 +748,46 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5043B7B-B73D-BC47-9DB6-0CEC03E87D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE16F7-A9EB-4945-9ADB-1498938B8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Script Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>Init installed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +334,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,6 +757,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="H4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" t="s">
         <v>14</v>

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE16F7-A9EB-4945-9ADB-1498938B8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E881F81-DC90-504A-822C-8A8BB95B51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -278,38 +278,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,25 +297,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,88 +668,88 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6:I6"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="12.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="7" customWidth="1"/>
     <col min="11" max="45" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="H4" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -766,22 +757,22 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -789,22 +780,22 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -817,22 +808,22 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -855,22 +846,22 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -904,77 +895,77 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
-    <col min="8" max="9" width="12.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="7" customWidth="1"/>
     <col min="11" max="45" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +988,10 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1023,10 +1014,10 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
     </row>

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E881F81-DC90-504A-822C-8A8BB95B51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3179F43-655B-614F-8626-283EE2F0A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>Script Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,53 @@
   </si>
   <si>
     <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.9 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fedora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alibaba Cloud Linux</t>
+  </si>
+  <si>
+    <t>3.2.104 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0  (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7Zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -272,13 +325,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,18 +427,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,6 +447,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,219 +848,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77C587-048C-7548-B4DE-058EFEE3C19D}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5:X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="7" customWidth="1"/>
-    <col min="11" max="45" width="20.83203125" customWidth="1"/>
+    <col min="1" max="3" width="16.83203125" style="19"/>
+    <col min="4" max="4" width="16.83203125" style="22"/>
+    <col min="5" max="6" width="16.83203125" style="19"/>
+    <col min="7" max="7" width="16.83203125" style="22"/>
+    <col min="8" max="9" width="16.83203125" style="19"/>
+    <col min="10" max="10" width="16.83203125" style="22"/>
+    <col min="11" max="16384" width="16.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="35"/>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="9"/>
+    </row>
+    <row r="5" spans="1:28" ht="30" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="30" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="5"/>
+      <c r="AB7" s="9"/>
+    </row>
+    <row r="8" spans="1:28" ht="30" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB8" s="9"/>
+    </row>
+    <row r="9" spans="1:28" ht="30" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="5"/>
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="1:28" ht="30" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="5"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="5"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" ht="30" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="5"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="5"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" ht="30" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" ht="30" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="28"/>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="B18" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,21 +1469,21 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11"/>
@@ -937,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1"/>

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3179F43-655B-614F-8626-283EE2F0A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7B4DF-7114-1645-90A1-93A68999BF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
   <sheets>
-    <sheet name="In System" sheetId="1" r:id="rId1"/>
+    <sheet name="In System" sheetId="4" r:id="rId1"/>
     <sheet name="In Docker" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="42">
   <si>
     <t>Script Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,21 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online-China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +166,42 @@
   </si>
   <si>
     <t>7zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java / Maven / Tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node.js / PM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need Proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +448,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,37 +475,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -493,18 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,6 +504,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,596 +865,840 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77C587-048C-7548-B4DE-058EFEE3C19D}">
-  <dimension ref="A1:AB18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4057246-E561-2B40-A204-7F86CD502E2D}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5:X5"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="16.83203125" style="19"/>
-    <col min="4" max="4" width="16.83203125" style="22"/>
-    <col min="5" max="6" width="16.83203125" style="19"/>
-    <col min="7" max="7" width="16.83203125" style="22"/>
-    <col min="8" max="9" width="16.83203125" style="19"/>
-    <col min="10" max="10" width="16.83203125" style="22"/>
-    <col min="11" max="16384" width="16.83203125" style="19"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="32" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="32" t="s">
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24"/>
-    </row>
-    <row r="2" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="10" t="s">
+      <c r="B8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="B16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1">
+      <c r="B17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="9"/>
-    </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1">
-      <c r="A5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="5"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="5"/>
-      <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="5"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="5"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="5"/>
-      <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="5"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="5"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="5"/>
-      <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="5"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="5"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="5"/>
-      <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1">
-      <c r="A13" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="28"/>
-    </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
-      <c r="B18" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1">
+      <c r="B19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
+  <mergeCells count="14">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,38 +1728,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1"/>

--- a/env-prepare/script-dev-plan.xlsx
+++ b/env-prepare/script-dev-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heaven/Workspaces/hz-9_workspace/collection-space/env-prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7B4DF-7114-1645-90A1-93A68999BF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC11EA36-9CF5-8C42-9EBC-3543AD3D8656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CA7A8425-824C-9845-86D0-43A88A5B878A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="55">
   <si>
     <t>Script Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +198,62 @@
   </si>
   <si>
     <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022  (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019  (x64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Service Wrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Mananger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jq - install package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jq - package manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git - package manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None Mananger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git - install package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSTools - install package &amp; action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,13 +512,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,55 +587,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,825 +939,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4057246-E561-2B40-A204-7F86CD502E2D}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:25" ht="30" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="11" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1">
-      <c r="A3" s="25"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="28"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" customHeight="1">
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" ht="30" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="30" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" ht="30" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" ht="30" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="20" spans="1:25" ht="30" customHeight="1">
+      <c r="B20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:25" ht="30" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="30" customHeight="1">
+      <c r="B22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="30" customHeight="1">
+      <c r="B23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="B16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
-      <c r="B17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
-      <c r="B18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
-      <c r="B19" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
+      <c r="C23" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="T1:Y1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -1728,38 +2134,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="1"/>
